--- a/需要额外配置的第三方包.xlsx
+++ b/需要额外配置的第三方包.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"># </t>
     </r>
     <r>
@@ -37,6 +43,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"># </t>
     </r>
     <r>
@@ -54,6 +66,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"># </t>
     </r>
     <r>
@@ -83,6 +101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <color rgb="FF629755"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"># </t>
     </r>
     <r>
@@ -116,12 +141,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,16 +188,109 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,114 +303,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -300,14 +318,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,7 +343,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,7 +358,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,37 +406,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,25 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,103 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,8 +554,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -564,11 +578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,33 +612,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,148 +654,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -794,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1160,7 +1172,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/需要额外配置的第三方包.xlsx
+++ b/需要额外配置的第三方包.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>需要进行额外配置的插件：</t>
   </si>
@@ -87,6 +87,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13.5"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>wechat_assets_picker</t>
     </r>
     <r>
@@ -123,6 +128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>image_cropper</t>
     </r>
     <r>
@@ -133,6 +144,45 @@
         <charset val="134"/>
       </rPr>
       <t>: ^1.4.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <color rgb="FF629755"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即构</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <color rgb="FF629755"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> RTC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>zego_express_engine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: ^2.17.1</t>
     </r>
   </si>
 </sst>
@@ -141,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -188,78 +238,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,14 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -295,13 +344,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -319,6 +361,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,13 +408,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,169 +462,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,11 +604,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,21 +637,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,15 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,157 +688,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,6 +863,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1169,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1226,6 +1282,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="15" ht="18" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:1">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
